--- a/画面設計/【画面設計】01_メニュー画面.xlsx
+++ b/画面設計/【画面設計】01_メニュー画面.xlsx
@@ -89,7 +89,8 @@
     <t>2.【機能概要】</t>
   </si>
   <si>
-    <t>ハンバーガーメニューで、料理検索・ユーザの新規登録・ユーザ管理（ユーザログイン）などを表示させる。</t>
+    <t>ハンバーガーメニューで、ユーザ管理（ユーザログイン）、料理検索、レシピ登録（ログイン状態かつログインユーザが権限ありの時）、（ユーザ）新規登録などを表示させる。
+ヘッダー項目で全画面に読み込ませるものとして、ログインユーザ名（未ログイン時はゲストさん）、ログアウト機能、閲覧履歴機能（直近で閲覧した料理一覧画面）も表示させる。</t>
   </si>
   <si>
     <t>3.【前の画面より受け取ったパラメータ】</t>
@@ -30222,16 +30223,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C55:D55"/>
     <mergeCell ref="C56:D56"/>
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="E1:I1"/>
+    <mergeCell ref="H15:H17"/>
     <mergeCell ref="B41:H43"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="H15:H17"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/画面設計/【画面設計】01_メニュー画面.xlsx
+++ b/画面設計/【画面設計】01_メニュー画面.xlsx
@@ -2188,7 +2188,7 @@
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>

--- a/画面設計/【画面設計】01_メニュー画面.xlsx
+++ b/画面設計/【画面設計】01_メニュー画面.xlsx
@@ -850,7 +850,7 @@
     <xdr:ext cx="219075" cy="228600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png"/>
+        <xdr:cNvPr id="0" name="image4.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -906,7 +906,7 @@
     <xdr:ext cx="219075" cy="228600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png"/>
+        <xdr:cNvPr id="0" name="image3.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -934,7 +934,7 @@
     <xdr:ext cx="638175" cy="228600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image5.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -962,7 +962,7 @@
     <xdr:ext cx="219075" cy="228600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png"/>
+        <xdr:cNvPr id="0" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>

--- a/画面設計/【画面設計】01_メニュー画面.xlsx
+++ b/画面設計/【画面設計】01_メニュー画面.xlsx
@@ -280,12 +280,13 @@
       <name val="游ゴシック"/>
     </font>
     <font>
+      <sz val="9.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
+      <sz val="9.0"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -589,19 +590,19 @@
     <xf borderId="10" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -610,37 +611,37 @@
     <xf borderId="14" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -850,7 +851,7 @@
     <xdr:ext cx="219075" cy="228600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png"/>
+        <xdr:cNvPr id="0" name="image5.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -878,7 +879,7 @@
     <xdr:ext cx="228600" cy="228600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png"/>
+        <xdr:cNvPr id="0" name="image3.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -906,7 +907,7 @@
     <xdr:ext cx="219075" cy="228600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png"/>
+        <xdr:cNvPr id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -934,7 +935,7 @@
     <xdr:ext cx="638175" cy="228600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.jpg"/>
+        <xdr:cNvPr id="0" name="image4.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -990,7 +991,7 @@
     <xdr:ext cx="352425" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image6.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
